--- a/biology/Zoologie/Dinotopia_(série_télévisée)/Dinotopia_(série_télévisée).xlsx
+++ b/biology/Zoologie/Dinotopia_(série_télévisée)/Dinotopia_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dinotopia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Dinotopia_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinotopia (Dinotopia: The Series) est une série télévisée américaine en treize épisodes de 42 minutes dont seulement six épisodes ont été diffusés entre le 28 novembre 2002 et le 26 décembre 2002 sur le réseau ABC. Les épisodes restants ont été diffusés à partir du 6 juillet 2003 au Royaume-Uni. La série fait suite à la mini-série Dinotopia avec des acteurs différents.
-En France, la série a été diffusée à partir du 14 avril 2005 sur M6 puis rediffusée sur Téva, W9, TF6, à partir du 14 avril 2013 sur 6ter et dès le 25 novembre 2016 sur Gulli[1]. En Belgique, à partir du 27 décembre 2004 sur La Une[2] puis rediffusée dès le 20 décembre 2014 sur AB3[3]. Elle reste néanmoins inédite dans les autres pays francophones.
+En France, la série a été diffusée à partir du 14 avril 2005 sur M6 puis rediffusée sur Téva, W9, TF6, à partir du 14 avril 2013 sur 6ter et dès le 25 novembre 2016 sur Gulli. En Belgique, à partir du 27 décembre 2004 sur La Une puis rediffusée dès le 20 décembre 2014 sur AB3. Elle reste néanmoins inédite dans les autres pays francophones.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dinotopia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Dinotopia_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série suit les péripéties de la famille Scott après leur échouement sur l'île de Dinotopia.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dinotopia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Dinotopia_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Dinotopia: The Series
 Titre français : Dinotopia
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dinotopia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Dinotopia_(série_télévisée)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,8 +600,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Shiloh Strong (en) (VF : Yoann Sover) : David Scott
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Shiloh Strong (en) (VF : Yoann Sover) : David Scott
 Erik von Detten (VF : Rémi Bichet) : Karl Scott
 Georgina Rylance (VF : Sylvie Jacob) : Marion Séville
 Michael Brandon (VF : Patrick Béthune) : Frank Scott
@@ -604,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dinotopia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Dinotopia_(série_télévisée)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,6 +644,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dinotopia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Dinotopia_(série_télévisée)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +671,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Il s'agit d'une suite de la mini-série en 3 parties Dinotopia. La totalité de la distribution a été changée. Seul un nouveau personnage a été introduit : Tores Le Sage, interprété par Lisa Zane.
 Le dernier épisode est inédit en France.</t>
